--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac83a829142318c0/develop/vba/Schedule/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac83a829142318c0/develop/vba/Excel_VBA_labo/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_AD4D066CA252ABDACC104841E995EE4872EEDF57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C346FD50-10DF-4AFE-BA73-DAC708992A46}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="11_AD4D066CA252ABDACC104841E995EE4872EEDF57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EE02665-062F-49BD-B8D0-629431E4C46C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -44,11 +44,22 @@
     <t>B</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm;@"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -85,9 +96,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -369,15 +381,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B6:Q13"/>
+  <dimension ref="B6:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="10.25" bestFit="1" customWidth="1"/>
@@ -473,8 +485,21 @@
       <c r="C10">
         <v>10.5</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="2">
+        <v>44606</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44621.5</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
@@ -483,17 +508,17 @@
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11" s="1">
-        <v>44613</v>
-      </c>
-      <c r="E11" s="1">
-        <v>44624</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
+      <c r="D11" s="2">
+        <v>44621.5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44631.5</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3.5</v>
+      </c>
+      <c r="I11">
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="2:17">
@@ -503,17 +528,17 @@
       <c r="C12">
         <v>5.75</v>
       </c>
-      <c r="D12" s="1">
-        <v>44617</v>
-      </c>
-      <c r="E12" s="1">
-        <v>44621.75</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>1.75</v>
+      <c r="D12" s="2">
+        <v>44627</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44634.75</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="2:17">
@@ -523,8 +548,120 @@
       <c r="C13">
         <v>0.5</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="2">
+        <v>44634.75</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44635.25</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44627</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44627.1</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44627.1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44627.3</v>
+      </c>
+      <c r="I15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44627.3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44627.55</v>
+      </c>
+      <c r="I16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44627.55</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44634.55</v>
+      </c>
+      <c r="I17">
+        <v>4.45</v>
+      </c>
+      <c r="J17">
+        <v>0.54999999999999982</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44627</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44632</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44634</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44639</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac83a829142318c0/develop/vba/Excel_VBA_labo/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="11_AD4D066CA252ABDACC104841E995EE4872EEDF57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EE02665-062F-49BD-B8D0-629431E4C46C}"/>
+  <xr:revisionPtr revIDLastSave="699" documentId="11_AD4D066CA252ABDACC104841E995EE4872EEDF57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EECD3A8F-E68E-4911-92FD-A9C999D62114}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -58,9 +58,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +73,19 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -96,10 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -381,15 +395,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B6:Q19"/>
+  <dimension ref="B6:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="4" max="5" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="10.25" bestFit="1" customWidth="1"/>
@@ -486,18 +500,18 @@
         <v>10.5</v>
       </c>
       <c r="D10" s="2">
-        <v>44606</v>
-      </c>
-      <c r="E10" s="2">
-        <v>44621.5</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
+        <v>44613</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44628</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
         <v>1.5</v>
       </c>
     </row>
@@ -508,17 +522,17 @@
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11" s="2">
-        <v>44621.5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>44631.5</v>
-      </c>
-      <c r="H11">
-        <v>3.5</v>
-      </c>
-      <c r="I11">
-        <v>4.5</v>
+      <c r="D11" s="3">
+        <v>44655</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44665</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:17">
@@ -528,11 +542,11 @@
       <c r="C12">
         <v>5.75</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>44627</v>
       </c>
-      <c r="E12" s="2">
-        <v>44634.75</v>
+      <c r="E12" s="3">
+        <v>44634</v>
       </c>
       <c r="I12">
         <v>5</v>
@@ -548,13 +562,13 @@
       <c r="C13">
         <v>0.5</v>
       </c>
-      <c r="D13" s="2">
-        <v>44634.75</v>
-      </c>
-      <c r="E13" s="2">
-        <v>44635.25</v>
-      </c>
-      <c r="J13">
+      <c r="D13" s="3">
+        <v>44641</v>
+      </c>
+      <c r="E13" s="3">
+        <v>44641</v>
+      </c>
+      <c r="K13">
         <v>0.5</v>
       </c>
     </row>
@@ -563,16 +577,16 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>44627</v>
-      </c>
-      <c r="E14" s="2">
-        <v>44627.1</v>
-      </c>
-      <c r="I14">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44662</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44663</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:17">
@@ -580,16 +594,16 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>44627.1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>44627.3</v>
-      </c>
-      <c r="I15">
-        <v>0.2</v>
+        <v>5.5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44627</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44627</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:17">
@@ -599,14 +613,11 @@
       <c r="C16">
         <v>0.25</v>
       </c>
-      <c r="D16" s="2">
-        <v>44627.3</v>
-      </c>
-      <c r="E16" s="2">
-        <v>44627.55</v>
-      </c>
-      <c r="I16">
-        <v>0.25</v>
+      <c r="D16" s="3">
+        <v>44641</v>
+      </c>
+      <c r="E16" s="3">
+        <v>44641</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -616,17 +627,17 @@
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17" s="2">
-        <v>44627.55</v>
-      </c>
-      <c r="E17" s="2">
-        <v>44634.55</v>
-      </c>
-      <c r="I17">
-        <v>4.45</v>
-      </c>
-      <c r="J17">
-        <v>0.54999999999999982</v>
+      <c r="D17" s="3">
+        <v>44613</v>
+      </c>
+      <c r="E17" s="3">
+        <v>44621</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -636,10 +647,10 @@
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>44627</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>44632</v>
       </c>
       <c r="I18">
@@ -653,14 +664,34 @@
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" s="2">
-        <v>44634</v>
-      </c>
-      <c r="E19" s="2">
-        <v>44639</v>
+      <c r="D19" s="3">
+        <v>44624</v>
+      </c>
+      <c r="E19" s="3">
+        <v>44638</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
+        <v>44620</v>
+      </c>
+      <c r="E20" s="3">
+        <v>44624</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac83a829142318c0/develop/vba/Excel_VBA_labo/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="699" documentId="11_AD4D066CA252ABDACC104841E995EE4872EEDF57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EECD3A8F-E68E-4911-92FD-A9C999D62114}"/>
+  <xr:revisionPtr revIDLastSave="1080" documentId="11_AD4D066CA252ABDACC104841E995EE4872EEDF57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FFF7FD4-0E73-4CF9-A852-9F56D4C65342}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="check" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">schedule!$B$9:$R$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -52,13 +56,63 @@
     <t>D</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC作業</t>
+    <rPh sb="3" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEF作業</t>
+    <rPh sb="3" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日</t>
+    <rPh sb="0" eb="3">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日</t>
+    <rPh sb="0" eb="3">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -109,16 +163,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -395,32 +465,76 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B6:Q20"/>
+  <dimension ref="B5:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="4" max="5" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="5" max="6" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:17">
-      <c r="F6">
-        <v>5</v>
-      </c>
+    <row r="5" spans="2:18">
+      <c r="G5">
+        <f>SUBTOTAL(9,G10:G20)</f>
+        <v>19.399990000000003</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:Q5" si="0">SUBTOTAL(9,H10:H20)</f>
+        <v>15.249999999999998</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>7.5500100000000003</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
       <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
       <c r="I6">
         <v>5</v>
       </c>
@@ -428,11 +542,11 @@
         <v>5</v>
       </c>
       <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
       <c r="M6">
         <v>5</v>
       </c>
@@ -443,260 +557,793 @@
         <v>5</v>
       </c>
       <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
-      <c r="F8" s="1">
+    <row r="8" spans="2:18">
+      <c r="G8" s="1">
         <v>44606</v>
       </c>
-      <c r="G8" s="1">
-        <f>F8+7</f>
+      <c r="H8" s="1">
+        <f>G8+7</f>
         <v>44613</v>
       </c>
-      <c r="H8" s="1">
-        <f t="shared" ref="H8:P8" si="0">G8+7</f>
+      <c r="I8" s="1">
+        <f t="shared" ref="I8:Q8" si="1">H8+7</f>
         <v>44620</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="0"/>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
         <v>44627</v>
       </c>
-      <c r="J8" s="1">
-        <f t="shared" si="0"/>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
         <v>44634</v>
       </c>
-      <c r="K8" s="1">
-        <f t="shared" si="0"/>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
         <v>44641</v>
       </c>
-      <c r="L8" s="1">
-        <f t="shared" si="0"/>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
         <v>44648</v>
       </c>
-      <c r="M8" s="1">
-        <f t="shared" si="0"/>
+      <c r="N8" s="1">
+        <f t="shared" si="1"/>
         <v>44655</v>
       </c>
-      <c r="N8" s="1">
-        <f t="shared" si="0"/>
+      <c r="O8" s="1">
+        <f t="shared" si="1"/>
         <v>44662</v>
       </c>
-      <c r="O8" s="1">
-        <f t="shared" si="0"/>
+      <c r="P8" s="1">
+        <f t="shared" si="1"/>
         <v>44669</v>
       </c>
-      <c r="P8" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q8" s="1">
+        <f t="shared" si="1"/>
         <v>44676</v>
       </c>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="10" spans="2:17">
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
       <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>10.5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
+        <v>44627</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44641</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44606</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44620</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>5.75</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44606</v>
+      </c>
+      <c r="F12" s="2">
         <v>44613</v>
       </c>
+      <c r="G12" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44610</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44614</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1.6653345369377348E-16</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.49999999999999983</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44606</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44607</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>5.5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44606</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44614</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44610</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44614</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.6653345369377348E-16</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.24999999999999983</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44610</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44622</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.19999000000000056</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2.5500099999999994</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44606</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44613</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44610</v>
+      </c>
+      <c r="F19" s="2">
+        <v>44621</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1.6653345369377348E-16</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44621</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44627</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B9:R20" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="G10:Q20">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(COUNTIF($B10,"*DEF*")&lt;&gt;0,G10&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>AND(COUNTIF($B10,"*ABC*")&lt;&gt;0,G10&lt;&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6163FD-1D5B-41F7-B552-B6EB93FD581B}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="9" max="9" width="3.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3">
+        <v>44627.041666666664</v>
+      </c>
+      <c r="B1" s="3">
+        <v>44641</v>
+      </c>
+      <c r="D1" s="3">
+        <v>44627</v>
+      </c>
+      <c r="E1" s="3">
+        <v>44641</v>
+      </c>
+      <c r="G1" t="str">
+        <f>IF(A1=D1,"○","×")</f>
+        <v>×</v>
+      </c>
+      <c r="H1" t="str">
+        <f>IF(B1=E1,"○","×")</f>
+        <v>○</v>
+      </c>
+      <c r="J1" t="str">
+        <f>IF(ROUNDDOWN(A1,0)=D1,"○","×")</f>
+        <v>○</v>
+      </c>
+      <c r="K1" t="str">
+        <f>IF(ROUNDDOWN(B1,0)=E1,"○","×")</f>
+        <v>○</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3">
+        <v>44655</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44665</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44655</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44665</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G11" si="0">IF(A2=D2,"○","×")</f>
+        <v>○</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H11" si="1">IF(B2=E2,"○","×")</f>
+        <v>○</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J11" si="2">IF(ROUNDDOWN(A2,0)=D2,"○","×")</f>
+        <v>○</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K11" si="3">IF(ROUNDDOWN(B2,0)=E2,"○","×")</f>
+        <v>○</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>44627</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44634.083333333336</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44627</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44634</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>○</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>×</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="2"/>
+        <v>○</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="3"/>
+        <v>○</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>44641</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44641</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44641</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44641</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>○</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>○</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>○</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="3"/>
+        <v>○</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>44662.625</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44663</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44662</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44663</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>○</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>○</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="3"/>
+        <v>○</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>44627</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44627</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44627</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44627</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>○</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>○</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>○</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="3"/>
+        <v>○</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>44641</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44641</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44641</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44641</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>○</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>○</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>○</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="3"/>
+        <v>○</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>44613</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44621.666666666664</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44613</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44621</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>○</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>×</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>○</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="3"/>
+        <v>○</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3">
+        <v>44627.083333333336</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44632</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44627</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44632</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>○</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>○</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="3"/>
+        <v>○</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3">
+        <v>44624</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44638.958333333336</v>
+      </c>
+      <c r="D10" s="3">
+        <v>44624</v>
+      </c>
       <c r="E10" s="3">
-        <v>44628</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
+        <v>44638</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>○</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>×</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>○</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="3"/>
+        <v>○</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3">
+        <v>44620</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44624</v>
       </c>
       <c r="D11" s="3">
-        <v>44655</v>
+        <v>44620</v>
       </c>
       <c r="E11" s="3">
-        <v>44665</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>5.75</v>
-      </c>
-      <c r="D12" s="3">
-        <v>44627</v>
-      </c>
-      <c r="E12" s="3">
-        <v>44634</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="3">
-        <v>44641</v>
-      </c>
-      <c r="E13" s="3">
-        <v>44641</v>
-      </c>
-      <c r="K13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>44662</v>
-      </c>
-      <c r="E14" s="3">
-        <v>44663</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>5.5</v>
-      </c>
-      <c r="D15" s="3">
-        <v>44627</v>
-      </c>
-      <c r="E15" s="3">
-        <v>44627</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="3">
-        <v>44641</v>
-      </c>
-      <c r="E16" s="3">
-        <v>44641</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>44613</v>
-      </c>
-      <c r="E17" s="3">
-        <v>44621</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3">
-        <v>44627</v>
-      </c>
-      <c r="E18" s="3">
-        <v>44632</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3">
         <v>44624</v>
       </c>
-      <c r="E19" s="3">
-        <v>44638</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3">
-        <v>44620</v>
-      </c>
-      <c r="E20" s="3">
-        <v>44624</v>
-      </c>
-      <c r="H20">
-        <v>4</v>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>○</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>○</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>○</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="3"/>
+        <v>○</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac83a829142318c0/develop/vba/Excel_VBA_labo/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1080" documentId="11_AD4D066CA252ABDACC104841E995EE4872EEDF57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FFF7FD4-0E73-4CF9-A852-9F56D4C65342}"/>
+  <xr:revisionPtr revIDLastSave="1152" documentId="11_AD4D066CA252ABDACC104841E995EE4872EEDF57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E08D909-14A3-428F-B571-732A8F394647}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -468,13 +468,13 @@
   <dimension ref="B5:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="5" max="6" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="10.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="10.25" bestFit="1" customWidth="1"/>
@@ -637,10 +637,10 @@
         <v>10.5</v>
       </c>
       <c r="E10" s="2">
-        <v>44627</v>
+        <v>44613</v>
       </c>
       <c r="F10" s="2">
-        <v>44641</v>
+        <v>44620</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
@@ -698,12 +698,8 @@
       <c r="D12">
         <v>5.75</v>
       </c>
-      <c r="E12" s="2">
-        <v>44606</v>
-      </c>
-      <c r="F12" s="2">
-        <v>44613</v>
-      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="4">
         <v>4.8</v>
       </c>
@@ -890,12 +886,8 @@
       <c r="D18">
         <v>5</v>
       </c>
-      <c r="E18" s="2">
-        <v>44606</v>
-      </c>
-      <c r="F18" s="2">
-        <v>44613</v>
-      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="4">
         <v>4.8</v>
       </c>
@@ -925,9 +917,7 @@
       <c r="E19" s="2">
         <v>44610</v>
       </c>
-      <c r="F19" s="2">
-        <v>44621</v>
-      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="4">
         <v>1.6653345369377348E-16</v>
       </c>
@@ -956,9 +946,7 @@
       <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20" s="2">
-        <v>44621</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2">
         <v>44627</v>
       </c>
@@ -1003,13 +991,13 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.58203125" customWidth="1"/>
+    <col min="4" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.375" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac83a829142318c0/develop/vba/Excel_VBA_labo/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1152" documentId="11_AD4D066CA252ABDACC104841E995EE4872EEDF57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E08D909-14A3-428F-B571-732A8F394647}"/>
+  <xr:revisionPtr revIDLastSave="2764" documentId="11_AD4D066CA252ABDACC104841E995EE4872EEDF57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD6880B1-076C-4848-895D-5955EB457643}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
-    <sheet name="check" sheetId="2" r:id="rId2"/>
+    <sheet name="Setting" sheetId="3" r:id="rId2"/>
+    <sheet name="correct_date_check" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">schedule!$B$9:$R$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">schedule!$B$9:$T$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,21 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -92,17 +81,81 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>工数</t>
-    <rPh sb="0" eb="2">
-      <t>コウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作業</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数(H)</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数(人日)</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数差異</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日の稼働時間</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>カドウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業別色</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウベツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -143,12 +196,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,17 +228,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -465,39 +539,91 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B5:R20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="5" max="6" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="7" max="8" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:18">
-      <c r="G5">
-        <f>SUBTOTAL(9,G10:G20)</f>
-        <v>19.399990000000003</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:Q5" si="0">SUBTOTAL(9,H10:H20)</f>
-        <v>15.249999999999998</v>
-      </c>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>7.5500100000000003</v>
+        <f>SUBTOTAL(9,I10:I20)</f>
+        <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" ref="J5:S5" si="0">SUBTOTAL(9,J10:J20)</f>
+        <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
@@ -505,53 +631,55 @@
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
+        <v>12.379999999999999</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>6.4799999999999995</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>1.6399999999999997</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -560,421 +688,522 @@
         <v>5</v>
       </c>
       <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
-      <c r="G8" s="1">
+    <row r="8" spans="1:20">
+      <c r="I8" s="1">
         <v>44606</v>
       </c>
-      <c r="H8" s="1">
-        <f>G8+7</f>
+      <c r="J8" s="1">
+        <f>I8+7</f>
         <v>44613</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" ref="I8:Q8" si="1">H8+7</f>
+      <c r="K8" s="1">
+        <f t="shared" ref="K8:S8" si="1">J8+7</f>
         <v>44620</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <f t="shared" si="1"/>
         <v>44627</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
         <v>44634</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="1">
         <f t="shared" si="1"/>
         <v>44641</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="1">
         <f t="shared" si="1"/>
         <v>44648</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <f t="shared" si="1"/>
         <v>44655</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="1">
         <f t="shared" si="1"/>
         <v>44662</v>
       </c>
-      <c r="P8" s="1">
+      <c r="R8" s="1">
         <f t="shared" si="1"/>
         <v>44669</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="S8" s="1">
         <f t="shared" si="1"/>
         <v>44676</v>
       </c>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="2:18">
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18">
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>44613</v>
-      </c>
-      <c r="F10" s="2">
-        <v>44620</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
-        <v>6</v>
+        <v>7.75</v>
+      </c>
+      <c r="E10">
+        <f>ROUNDUP(D10/Setting!$B$1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <f>ROUNDUP(SUM(I10:S10),2)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44627</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44628</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="2:18">
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="B11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>44606</v>
-      </c>
-      <c r="F11" s="2">
-        <v>44620</v>
-      </c>
-      <c r="G11" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
-        <v>0.20000000000000018</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <f>ROUNDUP(D11/Setting!$B$1,2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" ref="F11:F20" si="2">ROUNDUP(SUM(I11:S11),2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44628</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44628</v>
+      </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4">
+        <v>0.02</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="2:18">
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>5.75</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0.95000000000000018</v>
+        <v>0.1</v>
+      </c>
+      <c r="E12">
+        <f>ROUNDUP(D12/Setting!$B$1,2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44628</v>
+      </c>
+      <c r="H12" s="2">
+        <v>44628</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4">
+        <v>0.02</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="2:18">
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="2">
-        <v>44610</v>
-      </c>
-      <c r="F13" s="2">
-        <v>44614</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1.6653345369377348E-16</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.49999999999999983</v>
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <f>ROUNDUP(D13/Setting!$B$1,2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44627</v>
+      </c>
+      <c r="H13" s="2">
+        <v>44627</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4">
+        <v>0.02</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="2:18">
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="B14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>44606</v>
-      </c>
-      <c r="F14" s="2">
-        <v>44607</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="H14" s="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <f>ROUNDUP(D14/Setting!$B$1,2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="G14" s="2">
+        <v>44627</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44627</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4">
+        <v>0.02</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="2:18">
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="B15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>5.5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>44606</v>
-      </c>
-      <c r="F15" s="2">
-        <v>44614</v>
-      </c>
-      <c r="G15" s="4">
-        <v>4</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1.5</v>
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <f>ROUNDUP(D15/Setting!$B$1,2)</f>
+        <v>1.3</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>44627</v>
+      </c>
+      <c r="H15" s="2">
+        <v>44628</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4">
+        <v>1.3</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="2:18">
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="B16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="2">
-        <v>44610</v>
-      </c>
-      <c r="F16" s="2">
-        <v>44614</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1.6653345369377348E-16</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0.24999999999999983</v>
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <f>ROUNDUP(D16/Setting!$B$1,2)</f>
+        <v>2.59</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>2.59</v>
+      </c>
+      <c r="G16" s="2">
+        <v>44627</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44629</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4">
+        <v>2.59</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="2:17">
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="2:19">
       <c r="B17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2">
-        <v>44610</v>
-      </c>
-      <c r="F17" s="2">
-        <v>44622</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.19999000000000056</v>
-      </c>
-      <c r="H17" s="4">
-        <v>2.25</v>
-      </c>
-      <c r="I17" s="4">
-        <v>2.5500099999999994</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <f>ROUNDUP(D17/Setting!$B$1,2)</f>
+        <v>3.88</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="2"/>
+        <v>3.88</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44629</v>
+      </c>
+      <c r="H17" s="2">
+        <v>44635</v>
+      </c>
+      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="L17" s="4">
+        <v>2.41</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1.4699999999999998</v>
+      </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="2:17">
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="2:19">
       <c r="B18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0.20000000000000018</v>
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <f>ROUNDUP(D18/Setting!$B$1,2)</f>
+        <v>5.17</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="2"/>
+        <v>5.17</v>
+      </c>
+      <c r="G18" s="2">
+        <v>44635</v>
+      </c>
+      <c r="H18" s="2">
+        <v>44642</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="M18" s="4">
+        <v>3.5300000000000002</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1.6399999999999997</v>
+      </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="2:17">
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="2:19">
       <c r="B19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2">
-        <v>44610</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4">
-        <v>1.6653345369377348E-16</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1.4000000000000004</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <f>ROUNDUP(D19/Setting!$B$1,2)</f>
+        <v>6.46</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>6.46</v>
+      </c>
+      <c r="G19" s="2">
+        <v>44627</v>
+      </c>
+      <c r="H19" s="2">
+        <v>44635</v>
+      </c>
+      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="L19" s="4">
+        <v>5</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1.46</v>
+      </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="2:17">
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="2:19">
       <c r="B20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2">
-        <v>44627</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.60000000000000009</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="E20">
+        <f>ROUNDUP(D20/Setting!$B$1,2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="G20" s="2">
+        <v>44635</v>
+      </c>
+      <c r="H20" s="2">
+        <v>44635</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="M20" s="4">
+        <v>0.02</v>
+      </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B9:R20" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B9:T20" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G10:Q20">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(COUNTIF($B10,"*DEF*")&lt;&gt;0,G10&lt;&gt;0)</formula>
+  <conditionalFormatting sqref="I10:S20">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(COUNTIF($B10,"*DEF*")&lt;&gt;0,I10&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>AND(COUNTIF($B10,"*ABC*")&lt;&gt;0,G10&lt;&gt;0)</formula>
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>AND(COUNTIF($B10,"*ABC*")&lt;&gt;0,I10&lt;&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F20">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF($E10&lt;&gt;$F10,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -983,12 +1212,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FA6FDB-AD29-45E2-A881-D5B47BBD9DB7}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6163FD-1D5B-41F7-B552-B6EB93FD581B}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
